--- a/UserList.xlsx
+++ b/UserList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -43,33 +43,6 @@
   <si>
     <t>ester@gmail.com</t>
   </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>789ghi</t>
-  </si>
-  <si>
-    <t>john@outlook.com</t>
-  </si>
-  <si>
-    <t>Carine</t>
-  </si>
-  <si>
-    <t>qwert9876</t>
-  </si>
-  <si>
-    <t>carine@outlook.com</t>
-  </si>
-  <si>
-    <t>Loki</t>
-  </si>
-  <si>
-    <t>loki123</t>
-  </si>
-  <si>
-    <t>loki123@gmail.com</t>
-  </si>
 </sst>
 </file>
 
@@ -77,9 +50,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,15 +86,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -129,21 +109,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,23 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -206,21 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +194,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +223,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,97 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,67 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +432,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +504,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,69 +529,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,136 +553,137 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1060,7 +1034,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1098,49 +1072,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="3:3">
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="3:3">
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" spans="3:3">
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="john@outlook.com"/>
-    <hyperlink ref="C5" r:id="rId2" display="carine@outlook.com"/>
-    <hyperlink ref="C6" r:id="rId3" display="loki123@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId4" display="bryan@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId5" display="ester@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="bryan@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="ester@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
